--- a/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
+++ b/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
   <si>
     <t>작성일자</t>
   </si>
@@ -172,9 +172,6 @@
   </si>
   <si>
     <t>DashRange</t>
-  </si>
-  <si>
-    <t>몬스터의 대쉬 거리</t>
   </si>
   <si>
     <t>2. 몬스터 룰</t>
@@ -436,9 +433,6 @@
     </r>
   </si>
   <si>
-    <t>대쉬전</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -564,6 +558,10 @@
   </si>
   <si>
     <t xml:space="preserve"> - 범위공격을 달고 이동하여 일반몬스터에게 근접공격을 제한함.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터의 돌진이동 거리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -988,6 +986,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -995,12 +999,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,6 +1016,451 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419098</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="타원 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104898" y="15887700"/>
+          <a:ext cx="1905001" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="타원 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="16402048"/>
+          <a:ext cx="762000" cy="838201"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>플레이어</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="타원 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667374" y="16421098"/>
+          <a:ext cx="904875" cy="838201"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>몬스터</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="직선 연결선 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="2" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2390775" y="16821149"/>
+          <a:ext cx="3276599" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409573</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="타원 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5200648" y="24345900"/>
+          <a:ext cx="1905001" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="타원 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="24803098"/>
+          <a:ext cx="762000" cy="838201"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>플레이어</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>66673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="타원 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667374" y="24822148"/>
+          <a:ext cx="904875" cy="838201"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>몬스터</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="직선 연결선 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="8" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2390775" y="25222199"/>
+          <a:ext cx="3276599" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1443,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1454,7 +1897,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1486,7 +1929,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1502,7 +1945,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1564,13 +2007,13 @@
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -1582,13 +2025,13 @@
       <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -1600,13 +2043,13 @@
       <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -1648,12 +2091,12 @@
       <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="17" t="s">
         <v>25</v>
       </c>
@@ -1672,12 +2115,12 @@
       <c r="B16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="15">
         <v>10</v>
       </c>
@@ -1694,12 +2137,12 @@
       <c r="B17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="15">
         <v>20</v>
       </c>
@@ -1716,12 +2159,12 @@
       <c r="B18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="15">
         <v>1</v>
       </c>
@@ -1738,12 +2181,12 @@
       <c r="B19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="15">
         <v>100</v>
       </c>
@@ -1760,12 +2203,12 @@
       <c r="B20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="15">
         <v>10</v>
       </c>
@@ -1782,12 +2225,12 @@
       <c r="B21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="15">
         <v>5</v>
       </c>
@@ -1804,12 +2247,12 @@
       <c r="B22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="15">
         <v>2</v>
       </c>
@@ -1826,12 +2269,12 @@
       <c r="B23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="15">
         <v>5</v>
       </c>
@@ -1848,12 +2291,12 @@
       <c r="B24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="15">
         <v>7</v>
       </c>
@@ -1868,10 +2311,10 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="14"/>
@@ -1882,7 +2325,7 @@
     </row>
     <row r="27" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1901,12 +2344,12 @@
     </row>
     <row r="29" spans="2:13" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B29" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1922,7 +2365,7 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1952,7 +2395,7 @@
     </row>
     <row r="33" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B33" s="33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1968,7 +2411,7 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1984,12 +2427,12 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
@@ -1997,17 +2440,17 @@
     </row>
     <row r="38" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B38" s="33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
@@ -2015,12 +2458,12 @@
     </row>
     <row r="42" spans="2:13" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B42" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
@@ -2028,17 +2471,17 @@
     </row>
     <row r="46" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B46" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
@@ -2070,7 +2513,7 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2084,7 +2527,7 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -2098,7 +2541,7 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2112,7 +2555,7 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2126,7 +2569,7 @@
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -2140,7 +2583,7 @@
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2166,7 +2609,7 @@
     </row>
     <row r="61" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B61" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -2180,7 +2623,7 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -2194,7 +2637,7 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -2210,13 +2653,13 @@
       <c r="B65" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
       <c r="H65" s="17" t="s">
         <v>25</v>
       </c>
@@ -2230,15 +2673,15 @@
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C66" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
       <c r="H66" s="15">
         <v>5</v>
       </c>
@@ -2252,13 +2695,13 @@
       <c r="B67" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="38" t="s">
+      <c r="C67" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
       <c r="H67" s="15">
         <v>1</v>
       </c>
@@ -2272,15 +2715,15 @@
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
+        <v>53</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
       <c r="H68" s="15">
         <v>1.1000000000000001</v>
       </c>
@@ -2294,7 +2737,7 @@
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
@@ -2349,7 +2792,7 @@
       <c r="K75" s="21"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
@@ -2512,7 +2955,7 @@
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -2526,7 +2969,7 @@
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -2540,7 +2983,7 @@
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -2554,7 +2997,7 @@
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -2568,7 +3011,7 @@
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -2652,7 +3095,7 @@
     </row>
     <row r="102" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B102" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -2665,7 +3108,7 @@
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B103" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -2678,7 +3121,7 @@
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B104" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -2693,13 +3136,13 @@
       <c r="B106" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="39" t="s">
+      <c r="C106" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
       <c r="H106" s="17" t="s">
         <v>25</v>
       </c>
@@ -2712,15 +3155,15 @@
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B107" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C107" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="37"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="39"/>
       <c r="H107" s="15">
         <v>10</v>
       </c>
@@ -2733,13 +3176,13 @@
       <c r="B108" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="35" t="s">
+      <c r="C108" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="37"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="39"/>
       <c r="H108" s="15">
         <v>20</v>
       </c>
@@ -2752,13 +3195,13 @@
       <c r="B109" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="37"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="39"/>
       <c r="H109" s="15">
         <v>1</v>
       </c>
@@ -2769,15 +3212,15 @@
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C110" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="37"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="39"/>
       <c r="H110" s="15">
         <v>1.1000000000000001</v>
       </c>
@@ -2790,13 +3233,13 @@
       <c r="B111" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C111" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
+      <c r="C111" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
       <c r="H111" s="15">
         <v>9</v>
       </c>
@@ -2807,7 +3250,7 @@
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B113" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C113" s="18"/>
       <c r="D113" s="18"/>
@@ -2819,9 +3262,7 @@
       <c r="J113" s="19"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B114" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="B114" s="20"/>
       <c r="C114" s="21"/>
       <c r="D114" s="21"/>
       <c r="E114" s="21"/>
@@ -3204,6 +3645,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C106:G106"/>
     <mergeCell ref="C111:G111"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C10:G10"/>
@@ -3220,18 +3669,11 @@
     <mergeCell ref="C110:G110"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C106:G106"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
+++ b/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
@@ -465,10 +465,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 스킬 사용 룰</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -562,6 +558,10 @@
   </si>
   <si>
     <t>몬스터의 돌진이동 거리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 방어 미션에서도 플레이어만 추적</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -986,19 +986,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1886,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2007,13 +2007,13 @@
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -2025,13 +2025,13 @@
       <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -2043,13 +2043,13 @@
       <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -2091,12 +2091,12 @@
       <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
       <c r="G15" s="17" t="s">
         <v>25</v>
       </c>
@@ -2115,12 +2115,12 @@
       <c r="B16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="15">
         <v>10</v>
       </c>
@@ -2137,12 +2137,12 @@
       <c r="B17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="15">
         <v>20</v>
       </c>
@@ -2159,12 +2159,12 @@
       <c r="B18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="15">
         <v>1</v>
       </c>
@@ -2181,12 +2181,12 @@
       <c r="B19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="15">
         <v>100</v>
       </c>
@@ -2203,12 +2203,12 @@
       <c r="B20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
       <c r="G20" s="15">
         <v>10</v>
       </c>
@@ -2225,12 +2225,12 @@
       <c r="B21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
       <c r="G21" s="15">
         <v>5</v>
       </c>
@@ -2247,12 +2247,12 @@
       <c r="B22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="15">
         <v>2</v>
       </c>
@@ -2269,12 +2269,12 @@
       <c r="B23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
       <c r="G23" s="15">
         <v>5</v>
       </c>
@@ -2291,12 +2291,12 @@
       <c r="B24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="15">
         <v>7</v>
       </c>
@@ -2311,10 +2311,10 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="14"/>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -2427,12 +2427,12 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
@@ -2440,17 +2440,17 @@
     </row>
     <row r="38" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B38" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
@@ -2458,12 +2458,12 @@
     </row>
     <row r="42" spans="2:13" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B42" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
@@ -2476,12 +2476,12 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
@@ -2513,7 +2513,7 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -2653,13 +2653,13 @@
       <c r="B65" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
       <c r="H65" s="17" t="s">
         <v>25</v>
       </c>
@@ -2675,13 +2675,13 @@
       <c r="B66" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
       <c r="H66" s="15">
         <v>5</v>
       </c>
@@ -2695,13 +2695,13 @@
       <c r="B67" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
       <c r="H67" s="15">
         <v>1</v>
       </c>
@@ -2717,13 +2717,13 @@
       <c r="B68" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
+      <c r="C68" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
       <c r="H68" s="15">
         <v>1.1000000000000001</v>
       </c>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B92" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B103" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B104" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -3136,13 +3136,13 @@
       <c r="B106" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
       <c r="H106" s="17" t="s">
         <v>25</v>
       </c>
@@ -3157,13 +3157,13 @@
       <c r="B107" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C107" s="37" t="s">
+      <c r="C107" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="39"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="37"/>
       <c r="H107" s="15">
         <v>10</v>
       </c>
@@ -3176,13 +3176,13 @@
       <c r="B108" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="37" t="s">
+      <c r="C108" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D108" s="38"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="39"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="37"/>
       <c r="H108" s="15">
         <v>20</v>
       </c>
@@ -3195,13 +3195,13 @@
       <c r="B109" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C109" s="37" t="s">
+      <c r="C109" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="39"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="37"/>
       <c r="H109" s="15">
         <v>1</v>
       </c>
@@ -3214,13 +3214,13 @@
       <c r="B110" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C110" s="37" t="s">
+      <c r="C110" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D110" s="38"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="39"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="37"/>
       <c r="H110" s="15">
         <v>1.1000000000000001</v>
       </c>
@@ -3233,13 +3233,13 @@
       <c r="B111" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C111" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="35"/>
+      <c r="C111" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D111" s="38"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="38"/>
       <c r="H111" s="15">
         <v>9</v>
       </c>
@@ -3645,14 +3645,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C106:G106"/>
     <mergeCell ref="C111:G111"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C10:G10"/>
@@ -3669,6 +3661,14 @@
     <mergeCell ref="C110:G110"/>
     <mergeCell ref="C65:G65"/>
     <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C106:G106"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
+++ b/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\몬스터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\시스템 기획서\몬스터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
   <si>
     <t>작성일자</t>
   </si>
@@ -433,10 +433,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>네임드 몬스터_티버</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -513,10 +509,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 총 모션 시간 2.5~3초 [애니메이터와 추가 협의 할것]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 일반몬스터의 공격을 합께 나와 유저의 이동루트를 제한함.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -545,10 +537,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 총 모션 시간 5~6초 [애니메이터와 추가 협의 할것]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 다른 몬스터의 처치 방해와 강제로 스킬 사용을 유도</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -562,6 +550,38 @@
   </si>
   <si>
     <t xml:space="preserve">  - 방어 미션에서도 플레이어만 추적</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 총 모션 시간 1.5초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 점프동작 1초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 내려찍는동작 0.5초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 점프의 연출은 점프시 사라지게 하여 다시 나와 순식간에 찍는 연출</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 총 모션 시간 6.5초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 준비 동작 1초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회전 동작 5초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 끝내는 동작 0.5초</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -986,6 +1006,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -993,12 +1019,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,13 +1044,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>419098</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1078,13 +1098,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>38098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1135,13 +1155,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1192,13 +1212,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1244,13 +1264,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409573</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1298,13 +1318,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>47623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1355,13 +1375,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>66673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1412,13 +1432,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1884,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M146"/>
+  <dimension ref="B2:M148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1897,7 +1917,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1929,7 +1949,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1945,7 +1965,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2007,13 +2027,13 @@
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -2025,13 +2045,13 @@
       <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -2043,13 +2063,13 @@
       <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -2091,12 +2111,12 @@
       <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="17" t="s">
         <v>25</v>
       </c>
@@ -2115,12 +2135,12 @@
       <c r="B16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="15">
         <v>10</v>
       </c>
@@ -2137,12 +2157,12 @@
       <c r="B17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="15">
         <v>20</v>
       </c>
@@ -2159,12 +2179,12 @@
       <c r="B18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="15">
         <v>1</v>
       </c>
@@ -2181,12 +2201,12 @@
       <c r="B19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="15">
         <v>100</v>
       </c>
@@ -2203,12 +2223,12 @@
       <c r="B20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="15">
         <v>10</v>
       </c>
@@ -2225,12 +2245,12 @@
       <c r="B21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="15">
         <v>5</v>
       </c>
@@ -2247,12 +2267,12 @@
       <c r="B22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="15">
         <v>2</v>
       </c>
@@ -2269,12 +2289,12 @@
       <c r="B23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="15">
         <v>5</v>
       </c>
@@ -2291,12 +2311,12 @@
       <c r="B24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="15">
         <v>7</v>
       </c>
@@ -2311,10 +2331,10 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="14"/>
@@ -2344,12 +2364,12 @@
     </row>
     <row r="29" spans="2:13" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B29" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2395,7 +2415,7 @@
     </row>
     <row r="33" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B33" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -2411,7 +2431,7 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -2427,12 +2447,12 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
@@ -2440,17 +2460,17 @@
     </row>
     <row r="38" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B38" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
@@ -2458,12 +2478,12 @@
     </row>
     <row r="42" spans="2:13" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B42" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
@@ -2476,12 +2496,12 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
@@ -2513,7 +2533,7 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2527,7 +2547,7 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -2541,7 +2561,7 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2555,7 +2575,7 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2569,7 +2589,7 @@
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="34" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -2583,7 +2603,7 @@
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2596,7 +2616,9 @@
       <c r="K58" s="11"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="11"/>
+      <c r="B59" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -2607,37 +2629,15 @@
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
     </row>
-    <row r="61" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B61" s="28" t="s">
+    <row r="60" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B63" s="28" t="s">
         <v>51</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -2649,132 +2649,132 @@
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
     </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+    </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B67" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C67" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="17" t="s">
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I65" s="17" t="s">
+      <c r="I67" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J65" s="17" t="s">
+      <c r="J67" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K65" s="11"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C66" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="15">
-        <v>5</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J66" s="15"/>
-      <c r="K66" s="11"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="15">
-        <v>1</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J67" s="15"/>
       <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
+        <v>52</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
       <c r="H68" s="15">
-        <v>1.1000000000000001</v>
+        <v>5</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J68" s="15"/>
       <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="27" t="s">
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B69" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="15">
+        <v>1</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="15"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B70" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" s="15"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B74" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B73" s="25"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="25"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="22"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="19"/>
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
@@ -2789,11 +2789,9 @@
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="22"/>
-      <c r="K75" s="21"/>
+      <c r="K75" s="11"/>
       <c r="L75" s="11"/>
-      <c r="M75" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="M75" s="11"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="25"/>
@@ -2805,7 +2803,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="22"/>
-      <c r="K76" s="21"/>
+      <c r="K76" s="11"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
     </row>
@@ -2821,7 +2819,9 @@
       <c r="J77" s="22"/>
       <c r="K77" s="21"/>
       <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
+      <c r="M77" s="11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="25"/>
@@ -2904,6 +2904,8 @@
       <c r="I83" s="21"/>
       <c r="J83" s="22"/>
       <c r="K83" s="21"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="25"/>
@@ -2916,6 +2918,8 @@
       <c r="I84" s="21"/>
       <c r="J84" s="22"/>
       <c r="K84" s="21"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="25"/>
@@ -2942,48 +2946,44 @@
       <c r="K86" s="21"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B87" s="26"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="24"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="22"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B90" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B91" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B88" s="25"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="21"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B89" s="26"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="21"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B92" s="31" t="s">
-        <v>83</v>
+      <c r="B92" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -3010,8 +3010,8 @@
       <c r="K93" s="11"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B94" s="34" t="s">
-        <v>86</v>
+      <c r="B94" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -3024,7 +3024,9 @@
       <c r="K94" s="11"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B95" s="31"/>
+      <c r="B95" s="31" t="s">
+        <v>82</v>
+      </c>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
@@ -3036,7 +3038,9 @@
       <c r="K95" s="11"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B96" s="31"/>
+      <c r="B96" s="34" t="s">
+        <v>92</v>
+      </c>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
@@ -3048,7 +3052,9 @@
       <c r="K96" s="11"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="31"/>
+      <c r="B97" s="31" t="s">
+        <v>93</v>
+      </c>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
@@ -3060,7 +3066,9 @@
       <c r="K97" s="11"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="31"/>
+      <c r="B98" s="31" t="s">
+        <v>94</v>
+      </c>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
@@ -3072,7 +3080,9 @@
       <c r="K98" s="11"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="31"/>
+      <c r="B99" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
@@ -3081,9 +3091,10 @@
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B100" s="11"/>
+      <c r="B100" s="31"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
@@ -3092,11 +3103,21 @@
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
-    </row>
-    <row r="102" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B102" s="28" t="s">
-        <v>51</v>
-      </c>
+      <c r="K100" s="11"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B101" s="31"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
@@ -3106,22 +3127,9 @@
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B103" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B104" s="11" t="s">
-        <v>88</v>
+    <row r="104" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B104" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -3132,78 +3140,66 @@
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
     </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B105" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+    </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B108" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="39" t="s">
+      <c r="C108" s="36" t="s">
         <v>2</v>
-      </c>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I106" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J106" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B107" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C107" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="15">
-        <v>10</v>
-      </c>
-      <c r="I107" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J107" s="15"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B108" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C108" s="35" t="s">
-        <v>31</v>
       </c>
       <c r="D108" s="36"/>
       <c r="E108" s="36"/>
       <c r="F108" s="36"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="15">
-        <v>20</v>
-      </c>
-      <c r="I108" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J108" s="15"/>
+      <c r="G108" s="36"/>
+      <c r="H108" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I108" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J108" s="17" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C109" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="37"/>
+        <v>52</v>
+      </c>
+      <c r="C109" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" s="38"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="39"/>
       <c r="H109" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I109" s="15" t="s">
         <v>29</v>
@@ -3212,80 +3208,95 @@
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C110" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="37"/>
+        <v>30</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" s="38"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="39"/>
       <c r="H110" s="15">
-        <v>1.1000000000000001</v>
+        <v>20</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J110" s="15"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B111" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C111" s="38" t="s">
-        <v>89</v>
+        <v>32</v>
+      </c>
+      <c r="C111" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="D111" s="38"/>
       <c r="E111" s="38"/>
       <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
+      <c r="G111" s="39"/>
       <c r="H111" s="15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I111" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J111" s="14"/>
+      <c r="J111" s="15"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B112" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D112" s="38"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I112" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J112" s="15"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B113" s="27" t="s">
+      <c r="B113" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="15">
+        <v>9</v>
+      </c>
+      <c r="I113" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J113" s="14"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B115" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="19"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B114" s="20"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="21"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
-      <c r="I114" s="21"/>
-      <c r="J114" s="22"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B115" s="25"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
-      <c r="J115" s="22"/>
-      <c r="K115" s="11"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="19"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B116" s="25"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="21"/>
       <c r="D116" s="21"/>
       <c r="E116" s="21"/>
@@ -3294,7 +3305,6 @@
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
       <c r="J116" s="22"/>
-      <c r="K116" s="11"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B117" s="25"/>
@@ -3318,7 +3328,7 @@
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="22"/>
-      <c r="K118" s="21"/>
+      <c r="K118" s="11"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B119" s="25"/>
@@ -3330,7 +3340,7 @@
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="22"/>
-      <c r="K119" s="21"/>
+      <c r="K119" s="11"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B120" s="25"/>
@@ -3429,40 +3439,40 @@
       <c r="K127" s="21"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B128" s="26"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="23"/>
-      <c r="H128" s="23"/>
-      <c r="I128" s="23"/>
-      <c r="J128" s="24"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
+      <c r="J128" s="22"/>
       <c r="K128" s="21"/>
     </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B129" s="25"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
+      <c r="J129" s="22"/>
+      <c r="K129" s="21"/>
+    </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B130" s="31"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="31"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="31"/>
-      <c r="H130" s="31"/>
-      <c r="I130" s="31"/>
-      <c r="J130" s="31"/>
+      <c r="B130" s="26"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="23"/>
+      <c r="J130" s="24"/>
       <c r="K130" s="21"/>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B131" s="31"/>
-      <c r="C131" s="31"/>
-      <c r="D131" s="31"/>
-      <c r="E131" s="31"/>
-      <c r="F131" s="31"/>
-      <c r="G131" s="31"/>
-      <c r="H131" s="31"/>
-      <c r="I131" s="31"/>
-      <c r="J131" s="31"/>
-      <c r="K131" s="21"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B132" s="31"/>
@@ -3642,10 +3652,42 @@
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
       <c r="J146" s="31"/>
+      <c r="K146" s="21"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B147" s="31"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="31"/>
+      <c r="G147" s="31"/>
+      <c r="H147" s="31"/>
+      <c r="I147" s="31"/>
+      <c r="J147" s="31"/>
+      <c r="K147" s="21"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="31"/>
+      <c r="I148" s="31"/>
+      <c r="J148" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C110:G110"/>
     <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C113:G113"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
@@ -3658,17 +3700,9 @@
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C112:G112"/>
     <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C106:G106"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
+++ b/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
@@ -581,7 +581,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 공격 끝내는 동작 0.5초</t>
+    <t xml:space="preserve"> - 공격 끝내는 동작 0.8초</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1006,19 +1006,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1906,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2027,13 +2027,13 @@
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -2045,13 +2045,13 @@
       <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -2063,13 +2063,13 @@
       <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -2111,12 +2111,12 @@
       <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
       <c r="G15" s="17" t="s">
         <v>25</v>
       </c>
@@ -2135,12 +2135,12 @@
       <c r="B16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="15">
         <v>10</v>
       </c>
@@ -2157,12 +2157,12 @@
       <c r="B17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="15">
         <v>20</v>
       </c>
@@ -2179,12 +2179,12 @@
       <c r="B18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="15">
         <v>1</v>
       </c>
@@ -2201,12 +2201,12 @@
       <c r="B19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="15">
         <v>100</v>
       </c>
@@ -2223,12 +2223,12 @@
       <c r="B20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
       <c r="G20" s="15">
         <v>10</v>
       </c>
@@ -2245,12 +2245,12 @@
       <c r="B21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
       <c r="G21" s="15">
         <v>5</v>
       </c>
@@ -2267,12 +2267,12 @@
       <c r="B22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="15">
         <v>2</v>
       </c>
@@ -2289,12 +2289,12 @@
       <c r="B23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
       <c r="G23" s="15">
         <v>5</v>
       </c>
@@ -2311,12 +2311,12 @@
       <c r="B24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="15">
         <v>7</v>
       </c>
@@ -2331,10 +2331,10 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="14"/>
@@ -2681,13 +2681,13 @@
       <c r="B67" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
       <c r="H67" s="17" t="s">
         <v>25</v>
       </c>
@@ -2703,13 +2703,13 @@
       <c r="B68" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
       <c r="H68" s="15">
         <v>5</v>
       </c>
@@ -2723,13 +2723,13 @@
       <c r="B69" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
       <c r="H69" s="15">
         <v>1</v>
       </c>
@@ -2745,13 +2745,13 @@
       <c r="B70" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
       <c r="H70" s="15">
         <v>1.1000000000000001</v>
       </c>
@@ -3170,13 +3170,13 @@
       <c r="B108" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C108" s="36" t="s">
+      <c r="C108" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="39"/>
       <c r="H108" s="17" t="s">
         <v>25</v>
       </c>
@@ -3191,13 +3191,13 @@
       <c r="B109" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C109" s="37" t="s">
+      <c r="C109" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="39"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="37"/>
       <c r="H109" s="15">
         <v>10</v>
       </c>
@@ -3210,13 +3210,13 @@
       <c r="B110" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C110" s="37" t="s">
+      <c r="C110" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D110" s="38"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="39"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="37"/>
       <c r="H110" s="15">
         <v>20</v>
       </c>
@@ -3229,13 +3229,13 @@
       <c r="B111" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C111" s="37" t="s">
+      <c r="C111" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="39"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="37"/>
       <c r="H111" s="15">
         <v>1</v>
       </c>
@@ -3248,13 +3248,13 @@
       <c r="B112" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C112" s="37" t="s">
+      <c r="C112" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D112" s="38"/>
-      <c r="E112" s="38"/>
-      <c r="F112" s="38"/>
-      <c r="G112" s="39"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="37"/>
       <c r="H112" s="15">
         <v>1.1000000000000001</v>
       </c>
@@ -3267,13 +3267,13 @@
       <c r="B113" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="C113" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="35"/>
+      <c r="D113" s="38"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="38"/>
       <c r="H113" s="15">
         <v>9</v>
       </c>
@@ -3679,14 +3679,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C108:G108"/>
     <mergeCell ref="C113:G113"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C10:G10"/>
@@ -3703,6 +3695,14 @@
     <mergeCell ref="C112:G112"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C108:G108"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
+++ b/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\몬스터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\시스템 기획서\몬스터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
   <si>
     <t>작성일자</t>
   </si>
@@ -433,10 +433,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> - </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>네임드 몬스터_티버</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -513,10 +509,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 총 모션 시간 2.5~3초 [애니메이터와 추가 협의 할것]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 일반몬스터의 공격을 합께 나와 유저의 이동루트를 제한함.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -545,10 +537,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 총 모션 시간 5~6초 [애니메이터와 추가 협의 할것]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 다른 몬스터의 처치 방해와 강제로 스킬 사용을 유도</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -562,6 +550,38 @@
   </si>
   <si>
     <t xml:space="preserve">  - 방어 미션에서도 플레이어만 추적</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 총 모션 시간 1.5초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 점프동작 1초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 내려찍는동작 0.5초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 점프의 연출은 점프시 사라지게 하여 다시 나와 순식간에 찍는 연출</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 총 모션 시간 6.5초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 준비 동작 1초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회전 동작 5초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 공격 끝내는 동작 0.8초</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1024,13 +1044,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>419098</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1078,13 +1098,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>38098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1135,13 +1155,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1192,13 +1212,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1244,13 +1264,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409573</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1298,13 +1318,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>47623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1355,13 +1375,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>66673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1412,13 +1432,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1884,10 +1904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M146"/>
+  <dimension ref="B2:M148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1897,7 +1917,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1929,7 +1949,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1945,7 +1965,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2344,12 +2364,12 @@
     </row>
     <row r="29" spans="2:13" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B29" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2395,7 +2415,7 @@
     </row>
     <row r="33" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B33" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -2411,7 +2431,7 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -2427,12 +2447,12 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
@@ -2440,17 +2460,17 @@
     </row>
     <row r="38" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B38" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
@@ -2458,12 +2478,12 @@
     </row>
     <row r="42" spans="2:13" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B42" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
@@ -2476,12 +2496,12 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.3">
@@ -2513,7 +2533,7 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2527,7 +2547,7 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -2541,7 +2561,7 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2555,7 +2575,7 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2569,7 +2589,7 @@
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="34" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -2583,7 +2603,7 @@
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2596,7 +2616,9 @@
       <c r="K58" s="11"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="11"/>
+      <c r="B59" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -2607,37 +2629,15 @@
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
     </row>
-    <row r="61" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B61" s="28" t="s">
+    <row r="60" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B63" s="28" t="s">
         <v>51</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B62" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -2649,132 +2649,132 @@
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
     </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+    </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B67" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C67" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="17" t="s">
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I65" s="17" t="s">
+      <c r="I67" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J65" s="17" t="s">
+      <c r="J67" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K65" s="11"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C66" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="15">
-        <v>5</v>
-      </c>
-      <c r="I66" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J66" s="15"/>
-      <c r="K66" s="11"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="15">
-        <v>1</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J67" s="15"/>
       <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="D68" s="38"/>
       <c r="E68" s="38"/>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
       <c r="H68" s="15">
-        <v>1.1000000000000001</v>
+        <v>5</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J68" s="15"/>
       <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="27" t="s">
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B69" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="15">
+        <v>1</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" s="15"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B70" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" s="15"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B74" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B73" s="25"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="25"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="22"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="19"/>
       <c r="K74" s="11"/>
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
@@ -2789,11 +2789,9 @@
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="22"/>
-      <c r="K75" s="21"/>
+      <c r="K75" s="11"/>
       <c r="L75" s="11"/>
-      <c r="M75" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="M75" s="11"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" s="25"/>
@@ -2805,7 +2803,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="22"/>
-      <c r="K76" s="21"/>
+      <c r="K76" s="11"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
     </row>
@@ -2821,7 +2819,9 @@
       <c r="J77" s="22"/>
       <c r="K77" s="21"/>
       <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
+      <c r="M77" s="11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="25"/>
@@ -2904,6 +2904,8 @@
       <c r="I83" s="21"/>
       <c r="J83" s="22"/>
       <c r="K83" s="21"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="25"/>
@@ -2916,6 +2918,8 @@
       <c r="I84" s="21"/>
       <c r="J84" s="22"/>
       <c r="K84" s="21"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="25"/>
@@ -2942,48 +2946,44 @@
       <c r="K86" s="21"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B87" s="26"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="24"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="21"/>
+      <c r="H87" s="21"/>
+      <c r="I87" s="21"/>
+      <c r="J87" s="22"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B90" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B91" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B88" s="25"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="21"/>
+      <c r="H88" s="21"/>
+      <c r="I88" s="21"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="21"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B89" s="26"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="21"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B92" s="31" t="s">
-        <v>83</v>
+      <c r="B92" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" s="31" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -3010,8 +3010,8 @@
       <c r="K93" s="11"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B94" s="34" t="s">
-        <v>86</v>
+      <c r="B94" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -3024,7 +3024,9 @@
       <c r="K94" s="11"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B95" s="31"/>
+      <c r="B95" s="31" t="s">
+        <v>82</v>
+      </c>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
       <c r="E95" s="11"/>
@@ -3036,7 +3038,9 @@
       <c r="K95" s="11"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B96" s="31"/>
+      <c r="B96" s="34" t="s">
+        <v>92</v>
+      </c>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
@@ -3048,7 +3052,9 @@
       <c r="K96" s="11"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="31"/>
+      <c r="B97" s="31" t="s">
+        <v>93</v>
+      </c>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
       <c r="E97" s="11"/>
@@ -3060,7 +3066,9 @@
       <c r="K97" s="11"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="31"/>
+      <c r="B98" s="31" t="s">
+        <v>94</v>
+      </c>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
@@ -3072,7 +3080,9 @@
       <c r="K98" s="11"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="31"/>
+      <c r="B99" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
@@ -3081,9 +3091,10 @@
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B100" s="11"/>
+      <c r="B100" s="31"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
@@ -3092,11 +3103,21 @@
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
-    </row>
-    <row r="102" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B102" s="28" t="s">
-        <v>51</v>
-      </c>
+      <c r="K100" s="11"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B101" s="31"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
@@ -3106,22 +3127,9 @@
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B103" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B104" s="11" t="s">
-        <v>88</v>
+    <row r="104" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B104" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -3132,78 +3140,66 @@
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
     </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B105" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+    </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B108" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C106" s="39" t="s">
+      <c r="C108" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="17" t="s">
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I106" s="17" t="s">
+      <c r="I108" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J106" s="17" t="s">
+      <c r="J108" s="17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B107" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C107" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D107" s="36"/>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="15">
-        <v>10</v>
-      </c>
-      <c r="I107" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J107" s="15"/>
-    </row>
-    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B108" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C108" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="15">
-        <v>20</v>
-      </c>
-      <c r="I108" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J108" s="15"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" s="15" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C109" s="35" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D109" s="36"/>
       <c r="E109" s="36"/>
       <c r="F109" s="36"/>
       <c r="G109" s="37"/>
       <c r="H109" s="15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I109" s="15" t="s">
         <v>29</v>
@@ -3212,80 +3208,95 @@
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" s="15" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C110" s="35" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D110" s="36"/>
       <c r="E110" s="36"/>
       <c r="F110" s="36"/>
       <c r="G110" s="37"/>
       <c r="H110" s="15">
-        <v>1.1000000000000001</v>
+        <v>20</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J110" s="15"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B111" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C111" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
+        <v>32</v>
+      </c>
+      <c r="C111" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="37"/>
       <c r="H111" s="15">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I111" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J111" s="14"/>
+      <c r="J111" s="15"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B112" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C112" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I112" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J112" s="15"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B113" s="27" t="s">
+      <c r="B113" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="D113" s="38"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="38"/>
+      <c r="H113" s="15">
+        <v>9</v>
+      </c>
+      <c r="I113" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J113" s="14"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B115" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="19"/>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B114" s="20"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="21"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
-      <c r="I114" s="21"/>
-      <c r="J114" s="22"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B115" s="25"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
-      <c r="J115" s="22"/>
-      <c r="K115" s="11"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="19"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B116" s="25"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="21"/>
       <c r="D116" s="21"/>
       <c r="E116" s="21"/>
@@ -3294,7 +3305,6 @@
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
       <c r="J116" s="22"/>
-      <c r="K116" s="11"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B117" s="25"/>
@@ -3318,7 +3328,7 @@
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="22"/>
-      <c r="K118" s="21"/>
+      <c r="K118" s="11"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B119" s="25"/>
@@ -3330,7 +3340,7 @@
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="22"/>
-      <c r="K119" s="21"/>
+      <c r="K119" s="11"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B120" s="25"/>
@@ -3429,40 +3439,40 @@
       <c r="K127" s="21"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B128" s="26"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="23"/>
-      <c r="H128" s="23"/>
-      <c r="I128" s="23"/>
-      <c r="J128" s="24"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
+      <c r="J128" s="22"/>
       <c r="K128" s="21"/>
     </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B129" s="25"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
+      <c r="J129" s="22"/>
+      <c r="K129" s="21"/>
+    </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B130" s="31"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="31"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="31"/>
-      <c r="H130" s="31"/>
-      <c r="I130" s="31"/>
-      <c r="J130" s="31"/>
+      <c r="B130" s="26"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="23"/>
+      <c r="J130" s="24"/>
       <c r="K130" s="21"/>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B131" s="31"/>
-      <c r="C131" s="31"/>
-      <c r="D131" s="31"/>
-      <c r="E131" s="31"/>
-      <c r="F131" s="31"/>
-      <c r="G131" s="31"/>
-      <c r="H131" s="31"/>
-      <c r="I131" s="31"/>
-      <c r="J131" s="31"/>
-      <c r="K131" s="21"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B132" s="31"/>
@@ -3642,10 +3652,34 @@
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
       <c r="J146" s="31"/>
+      <c r="K146" s="21"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B147" s="31"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="31"/>
+      <c r="G147" s="31"/>
+      <c r="H147" s="31"/>
+      <c r="I147" s="31"/>
+      <c r="J147" s="31"/>
+      <c r="K147" s="21"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B148" s="31"/>
+      <c r="C148" s="31"/>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="31"/>
+      <c r="I148" s="31"/>
+      <c r="J148" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C113:G113"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
@@ -3658,17 +3692,17 @@
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C109:G109"/>
     <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C69:G69"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C108:G108"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
+++ b/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\시스템 기획서\몬스터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\몬스터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
   <si>
     <t>작성일자</t>
   </si>
@@ -582,6 +582,10 @@
   </si>
   <si>
     <t xml:space="preserve"> - 공격 끝내는 동작 0.8초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 히트 판정은 1초마다 적용 총 5회</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1006,6 +1010,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,12 +1023,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1907,7 +1911,7 @@
   <dimension ref="B2:M148"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2027,13 +2031,13 @@
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -2045,13 +2049,13 @@
       <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -2063,13 +2067,13 @@
       <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -2111,12 +2115,12 @@
       <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="17" t="s">
         <v>25</v>
       </c>
@@ -2135,12 +2139,12 @@
       <c r="B16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="15">
         <v>10</v>
       </c>
@@ -2157,12 +2161,12 @@
       <c r="B17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
       <c r="G17" s="15">
         <v>20</v>
       </c>
@@ -2179,12 +2183,12 @@
       <c r="B18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="15">
         <v>1</v>
       </c>
@@ -2201,12 +2205,12 @@
       <c r="B19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
       <c r="G19" s="15">
         <v>100</v>
       </c>
@@ -2223,12 +2227,12 @@
       <c r="B20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="15">
         <v>10</v>
       </c>
@@ -2245,12 +2249,12 @@
       <c r="B21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
       <c r="G21" s="15">
         <v>5</v>
       </c>
@@ -2267,12 +2271,12 @@
       <c r="B22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
       <c r="G22" s="15">
         <v>2</v>
       </c>
@@ -2289,12 +2293,12 @@
       <c r="B23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="15">
         <v>5</v>
       </c>
@@ -2311,12 +2315,12 @@
       <c r="B24" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
       <c r="G24" s="15">
         <v>7</v>
       </c>
@@ -2331,10 +2335,10 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="15"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="14"/>
@@ -2681,13 +2685,13 @@
       <c r="B67" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
       <c r="H67" s="17" t="s">
         <v>25</v>
       </c>
@@ -2703,13 +2707,13 @@
       <c r="B68" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C68" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
       <c r="H68" s="15">
         <v>5</v>
       </c>
@@ -2723,13 +2727,13 @@
       <c r="B69" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C69" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
       <c r="H69" s="15">
         <v>1</v>
       </c>
@@ -2745,13 +2749,13 @@
       <c r="B70" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="38" t="s">
+      <c r="C70" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
       <c r="H70" s="15">
         <v>1.1000000000000001</v>
       </c>
@@ -3094,7 +3098,9 @@
       <c r="K99" s="11"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B100" s="31"/>
+      <c r="B100" s="31" t="s">
+        <v>96</v>
+      </c>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
@@ -3170,13 +3176,13 @@
       <c r="B108" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C108" s="39" t="s">
+      <c r="C108" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="39"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36"/>
       <c r="H108" s="17" t="s">
         <v>25</v>
       </c>
@@ -3191,13 +3197,13 @@
       <c r="B109" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="37"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="39"/>
       <c r="H109" s="15">
         <v>10</v>
       </c>
@@ -3210,13 +3216,13 @@
       <c r="B110" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="C110" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="37"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="38"/>
+      <c r="F110" s="38"/>
+      <c r="G110" s="39"/>
       <c r="H110" s="15">
         <v>20</v>
       </c>
@@ -3229,13 +3235,13 @@
       <c r="B111" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C111" s="35" t="s">
+      <c r="C111" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="37"/>
+      <c r="D111" s="38"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="38"/>
+      <c r="G111" s="39"/>
       <c r="H111" s="15">
         <v>1</v>
       </c>
@@ -3248,13 +3254,13 @@
       <c r="B112" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C112" s="35" t="s">
+      <c r="C112" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="37"/>
+      <c r="D112" s="38"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="38"/>
+      <c r="G112" s="39"/>
       <c r="H112" s="15">
         <v>1.1000000000000001</v>
       </c>
@@ -3267,13 +3273,13 @@
       <c r="B113" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C113" s="38" t="s">
+      <c r="C113" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D113" s="38"/>
-      <c r="E113" s="38"/>
-      <c r="F113" s="38"/>
-      <c r="G113" s="38"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
       <c r="H113" s="15">
         <v>9</v>
       </c>
@@ -3679,6 +3685,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C108:G108"/>
     <mergeCell ref="C113:G113"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C10:G10"/>
@@ -3695,14 +3709,6 @@
     <mergeCell ref="C112:G112"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C108:G108"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
+++ b/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="네임드몬스터_티버" sheetId="2" r:id="rId2"/>
-    <sheet name="호름도" sheetId="3" r:id="rId3"/>
+    <sheet name="흐름도" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>작성일자</t>
   </si>
@@ -111,9 +111,6 @@
     <t>데이터형</t>
   </si>
   <si>
-    <t>SkillAtk 1,2</t>
-  </si>
-  <si>
     <t>스킬의 공격력</t>
   </si>
   <si>
@@ -145,12 +142,6 @@
   </si>
   <si>
     <t>실수형</t>
-  </si>
-  <si>
-    <t>MonsterDamage</t>
-  </si>
-  <si>
-    <t>몬스터의 공격력</t>
   </si>
   <si>
     <t>MonsterDefance</t>
@@ -457,10 +448,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 스킬 사용 룰</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -586,6 +573,29 @@
   </si>
   <si>
     <t xml:space="preserve"> - 히트 판정은 1초마다 적용 총 5회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 이동 상태는 총 2초간 지속됨.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐름도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillAtk 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillAtk 2</t>
+  </si>
+  <si>
+    <t>스킬1의 공격력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2의 공격력</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -904,7 +914,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,9 +1023,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1023,6 +1030,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,13 +1061,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>419098</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1102,13 +1115,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>38098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1159,13 +1172,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1216,13 +1229,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1268,13 +1281,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409573</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1322,13 +1335,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>47623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1379,13 +1392,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>66673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1436,13 +1449,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1482,6 +1495,49 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>607895</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>125133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="723900"/>
+          <a:ext cx="8827970" cy="1496733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1908,10 +1964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M148"/>
+  <dimension ref="B2:M145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1921,7 +1977,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1953,7 +2009,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1969,7 +2025,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2031,13 +2087,13 @@
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -2049,13 +2105,13 @@
       <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -2067,13 +2123,13 @@
       <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -2115,12 +2171,12 @@
       <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="17" t="s">
         <v>25</v>
       </c>
@@ -2137,19 +2193,19 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="15">
+        <v>50</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="15">
-        <v>10</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="11"/>
@@ -2158,64 +2214,64 @@
       <c r="M16" s="29"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="15">
+      <c r="B17" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="35">
         <v>20</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="15"/>
+      <c r="H17" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="35"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="15">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="15"/>
+      <c r="C18" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="35">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="14"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="35" t="s">
+      <c r="B19" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="15">
-        <v>100</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>29</v>
+      <c r="C19" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="35">
+        <v>10</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>37</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="11"/>
@@ -2224,20 +2280,20 @@
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="15">
-        <v>10</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="B20" s="35" t="s">
         <v>38</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="35">
+        <v>5</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="11"/>
@@ -2246,20 +2302,18 @@
       <c r="M20" s="29"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="35" t="s">
+      <c r="B21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="15">
-        <v>5</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>29</v>
+      <c r="C21" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35" t="s">
+        <v>37</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="11"/>
@@ -2268,20 +2322,18 @@
       <c r="M21" s="29"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="35" t="s">
+      <c r="B22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="15">
-        <v>2</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>29</v>
+      <c r="C22" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="11"/>
@@ -2289,67 +2341,33 @@
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="15">
-        <v>5</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="15">
-        <v>7</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="14"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="27" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
-        <v>48</v>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="32"/>
+    </row>
+    <row r="26" spans="2:13" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2363,17 +2381,39 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="32"/>
-    </row>
-    <row r="29" spans="2:13" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="31" t="s">
-        <v>62</v>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2388,8 +2428,8 @@
       <c r="M30" s="11"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="31" t="s">
-        <v>49</v>
+      <c r="B31" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2404,140 +2444,136 @@
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-    </row>
-    <row r="33" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="33" t="s">
+      <c r="B32" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B35" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="2:11" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B39" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="43" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B43" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B38" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="11" t="s">
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="2:13" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B42" s="33" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="31" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="11"/>
-    </row>
-    <row r="46" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B46" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="11"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="21"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="21"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="12" t="s">
-        <v>73</v>
+      <c r="B53" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2550,8 +2586,8 @@
       <c r="K53" s="11"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="11" t="s">
-        <v>75</v>
+      <c r="B54" s="34" t="s">
+        <v>84</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -2565,7 +2601,7 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2579,7 +2615,7 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2591,197 +2627,199 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-    </row>
-    <row r="60" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B63" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B60" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B61" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B62" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
+      <c r="B64" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="K64" s="11"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
+      <c r="B65" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="15">
+        <v>5</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" s="15"/>
       <c r="K65" s="11"/>
     </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B66" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="15">
+        <v>1</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J66" s="15"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+    </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J67" s="17" t="s">
-        <v>3</v>
-      </c>
+      <c r="B67" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J67" s="15"/>
       <c r="K67" s="11"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="15" t="s">
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B71" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="15">
-        <v>5</v>
-      </c>
-      <c r="I68" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J68" s="15"/>
-      <c r="K68" s="11"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="15">
-        <v>1</v>
-      </c>
-      <c r="I69" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J69" s="15"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="15" t="s">
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B72" s="25"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B73" s="25"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B74" s="25"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I70" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J70" s="15"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="25"/>
@@ -2793,7 +2831,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="22"/>
-      <c r="K75" s="11"/>
+      <c r="K75" s="21"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
     </row>
@@ -2807,7 +2845,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="22"/>
-      <c r="K76" s="11"/>
+      <c r="K76" s="21"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
     </row>
@@ -2823,9 +2861,7 @@
       <c r="J77" s="22"/>
       <c r="K77" s="21"/>
       <c r="L77" s="11"/>
-      <c r="M77" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="M77" s="11"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="25"/>
@@ -2894,8 +2930,6 @@
       <c r="I82" s="21"/>
       <c r="J82" s="22"/>
       <c r="K82" s="21"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="25"/>
@@ -2908,8 +2942,6 @@
       <c r="I83" s="21"/>
       <c r="J83" s="22"/>
       <c r="K83" s="21"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="25"/>
@@ -2922,8 +2954,6 @@
       <c r="I84" s="21"/>
       <c r="J84" s="22"/>
       <c r="K84" s="21"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="25"/>
@@ -2938,56 +2968,62 @@
       <c r="K85" s="21"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B86" s="25"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="22"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="24"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B87" s="25"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="21"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B88" s="25"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="21"/>
-    </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B89" s="26"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="21"/>
+      <c r="B89" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B90" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B91" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B92" s="12" t="s">
-        <v>74</v>
+      <c r="B92" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -3000,8 +3036,8 @@
       <c r="K92" s="11"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B93" s="31" t="s">
-        <v>80</v>
+      <c r="B93" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -3015,7 +3051,7 @@
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="31" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -3029,7 +3065,7 @@
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -3042,8 +3078,8 @@
       <c r="K95" s="11"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B96" s="34" t="s">
-        <v>92</v>
+      <c r="B96" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -3057,7 +3093,7 @@
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B97" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -3070,9 +3106,7 @@
       <c r="K97" s="11"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="31" t="s">
-        <v>94</v>
-      </c>
+      <c r="B98" s="31"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
@@ -3081,12 +3115,9 @@
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="31" t="s">
-        <v>95</v>
-      </c>
+      <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
@@ -3095,24 +3126,11 @@
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B100" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B101" s="31"/>
+    </row>
+    <row r="101" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B101" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
@@ -3123,7 +3141,9 @@
       <c r="J101" s="11"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B102" s="11"/>
+      <c r="B102" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
@@ -3133,176 +3153,185 @@
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
     </row>
-    <row r="104" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B104" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B103" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B105" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
+      <c r="B105" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" s="17" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B106" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11"/>
+      <c r="B106" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="15">
+        <v>10</v>
+      </c>
+      <c r="I106" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J106" s="15"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B107" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="15">
+        <v>20</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J107" s="15"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B108" s="16" t="s">
-        <v>18</v>
+      <c r="B108" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="C108" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I108" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J108" s="17" t="s">
-        <v>3</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="15">
+        <v>1</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J108" s="15"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C109" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="39"/>
+        <v>50</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="38"/>
       <c r="H109" s="15">
-        <v>10</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I109" s="15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J109" s="15"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C110" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D110" s="38"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="38"/>
+        <v>44</v>
+      </c>
+      <c r="C110" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="39"/>
       <c r="G110" s="39"/>
       <c r="H110" s="15">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J110" s="15"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B111" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C111" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="39"/>
-      <c r="H111" s="15">
-        <v>1</v>
-      </c>
-      <c r="I111" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J111" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="J110" s="14"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C112" s="37" t="s">
+      <c r="B112" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D112" s="38"/>
-      <c r="E112" s="38"/>
-      <c r="F112" s="38"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I112" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J112" s="15"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="19"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B113" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C113" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="15">
-        <v>9</v>
-      </c>
-      <c r="I113" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J113" s="14"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="22"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B114" s="25"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="11"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B115" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="19"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="11"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B116" s="20"/>
+      <c r="B116" s="25"/>
       <c r="C116" s="21"/>
       <c r="D116" s="21"/>
       <c r="E116" s="21"/>
@@ -3311,6 +3340,7 @@
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
       <c r="J116" s="22"/>
+      <c r="K116" s="11"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B117" s="25"/>
@@ -3322,7 +3352,7 @@
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="22"/>
-      <c r="K117" s="11"/>
+      <c r="K117" s="21"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B118" s="25"/>
@@ -3334,7 +3364,7 @@
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="22"/>
-      <c r="K118" s="11"/>
+      <c r="K118" s="21"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B119" s="25"/>
@@ -3346,7 +3376,7 @@
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="22"/>
-      <c r="K119" s="11"/>
+      <c r="K119" s="21"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B120" s="25"/>
@@ -3433,52 +3463,52 @@
       <c r="K126" s="21"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B127" s="25"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="21"/>
-      <c r="H127" s="21"/>
-      <c r="I127" s="21"/>
-      <c r="J127" s="22"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="23"/>
+      <c r="J127" s="24"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B128" s="25"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="21"/>
-      <c r="H128" s="21"/>
-      <c r="I128" s="21"/>
-      <c r="J128" s="22"/>
-      <c r="K128" s="21"/>
-    </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B129" s="25"/>
-      <c r="C129" s="21"/>
-      <c r="D129" s="21"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="21"/>
-      <c r="H129" s="21"/>
-      <c r="I129" s="21"/>
-      <c r="J129" s="22"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="31"/>
+      <c r="J129" s="31"/>
       <c r="K129" s="21"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B130" s="26"/>
-      <c r="C130" s="23"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="23"/>
-      <c r="H130" s="23"/>
-      <c r="I130" s="23"/>
-      <c r="J130" s="24"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="31"/>
+      <c r="H130" s="31"/>
+      <c r="I130" s="31"/>
+      <c r="J130" s="31"/>
       <c r="K130" s="21"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B131" s="31"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="31"/>
+      <c r="J131" s="31"/>
+      <c r="K131" s="21"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B132" s="31"/>
@@ -3636,7 +3666,7 @@
       <c r="J144" s="31"/>
       <c r="K144" s="21"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B145" s="31"/>
       <c r="C145" s="31"/>
       <c r="D145" s="31"/>
@@ -3646,69 +3676,30 @@
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
       <c r="J145" s="31"/>
-      <c r="K145" s="21"/>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="31"/>
-      <c r="G146" s="31"/>
-      <c r="H146" s="31"/>
-      <c r="I146" s="31"/>
-      <c r="J146" s="31"/>
-      <c r="K146" s="21"/>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B147" s="31"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="31"/>
-      <c r="F147" s="31"/>
-      <c r="G147" s="31"/>
-      <c r="H147" s="31"/>
-      <c r="I147" s="31"/>
-      <c r="J147" s="31"/>
-      <c r="K147" s="21"/>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B148" s="31"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="31"/>
-      <c r="E148" s="31"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="31"/>
-      <c r="H148" s="31"/>
-      <c r="I148" s="31"/>
-      <c r="J148" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C109:G109"/>
+  <mergeCells count="21">
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
     <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C105:G105"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3719,15 +3710,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
+++ b/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rrkde\Desktop\MondayClass\Document\시스템 기획서\몬스터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\몬스터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="네임드몬스터_티버" sheetId="2" r:id="rId2"/>
-    <sheet name="호름도" sheetId="3" r:id="rId3"/>
+    <sheet name="흐름도" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>작성일자</t>
   </si>
@@ -111,9 +111,6 @@
     <t>데이터형</t>
   </si>
   <si>
-    <t>SkillAtk 1,2</t>
-  </si>
-  <si>
     <t>스킬의 공격력</t>
   </si>
   <si>
@@ -145,12 +142,6 @@
   </si>
   <si>
     <t>실수형</t>
-  </si>
-  <si>
-    <t>MonsterDamage</t>
-  </si>
-  <si>
-    <t>몬스터의 공격력</t>
   </si>
   <si>
     <t>MonsterDefance</t>
@@ -457,10 +448,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 스킬 사용 룰</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -582,6 +569,33 @@
   </si>
   <si>
     <t xml:space="preserve"> - 공격 끝내는 동작 0.8초</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 히트 판정은 1초마다 적용 총 5회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 이동 상태는 총 2초간 지속됨.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐름도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillAtk 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillAtk 2</t>
+  </si>
+  <si>
+    <t>스킬1의 공격력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2의 공격력</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -900,7 +914,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,6 +1019,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1044,13 +1061,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>419098</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1098,13 +1115,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>38098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1155,13 +1172,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1212,13 +1229,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1264,13 +1281,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409573</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1318,13 +1335,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>47623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1375,13 +1392,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>66673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1432,13 +1449,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1478,6 +1495,49 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>607895</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>125133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="723900"/>
+          <a:ext cx="8827970" cy="1496733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1904,10 +1964,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M148"/>
+  <dimension ref="B2:M145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1917,7 +1977,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1949,7 +2009,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1965,7 +2025,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2027,13 +2087,13 @@
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -2045,13 +2105,13 @@
       <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -2063,13 +2123,13 @@
       <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -2111,12 +2171,12 @@
       <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="17" t="s">
         <v>25</v>
       </c>
@@ -2133,19 +2193,19 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="15">
+        <v>50</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="15">
-        <v>10</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="11"/>
@@ -2154,64 +2214,64 @@
       <c r="M16" s="29"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="15">
+      <c r="B17" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="35">
         <v>20</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="15"/>
+      <c r="H17" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="35"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="38" t="s">
+      <c r="B18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="C18" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="38"/>
-      <c r="G18" s="15">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="15"/>
+      <c r="G18" s="35">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="14"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="38" t="s">
+      <c r="B19" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
+      <c r="C19" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="38"/>
-      <c r="G19" s="15">
-        <v>100</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>29</v>
+      <c r="G19" s="35">
+        <v>10</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>37</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="11"/>
@@ -2220,20 +2280,20 @@
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="15">
-        <v>10</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>38</v>
+      <c r="G20" s="35">
+        <v>5</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="11"/>
@@ -2242,20 +2302,18 @@
       <c r="M20" s="29"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="38" t="s">
+      <c r="B21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="C21" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="38"/>
-      <c r="G21" s="15">
-        <v>5</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>29</v>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35" t="s">
+        <v>37</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="11"/>
@@ -2264,20 +2322,18 @@
       <c r="M21" s="29"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="38" t="s">
+      <c r="B22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
+      <c r="C22" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="38"/>
-      <c r="G22" s="15">
-        <v>2</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>29</v>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="11"/>
@@ -2285,67 +2341,33 @@
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="15">
-        <v>5</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="15">
-        <v>7</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="14"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="27" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
-        <v>48</v>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="32"/>
+    </row>
+    <row r="26" spans="2:13" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2359,17 +2381,39 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="32"/>
-    </row>
-    <row r="29" spans="2:13" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="31" t="s">
-        <v>62</v>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2384,8 +2428,8 @@
       <c r="M30" s="11"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="31" t="s">
-        <v>49</v>
+      <c r="B31" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2400,140 +2444,136 @@
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-    </row>
-    <row r="33" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="33" t="s">
+      <c r="B32" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B35" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="2:11" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B39" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="43" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B43" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B38" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="11" t="s">
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="2:13" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B42" s="33" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="31" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="11"/>
-    </row>
-    <row r="46" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B46" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="11"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="21"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="21"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="12" t="s">
-        <v>73</v>
+      <c r="B53" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2546,8 +2586,8 @@
       <c r="K53" s="11"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="11" t="s">
-        <v>75</v>
+      <c r="B54" s="34" t="s">
+        <v>84</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -2561,7 +2601,7 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2575,7 +2615,7 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2587,197 +2627,199 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-    </row>
-    <row r="60" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B63" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B60" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B61" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B62" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
+      <c r="B64" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="K64" s="11"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
+      <c r="B65" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="15">
+        <v>5</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" s="15"/>
       <c r="K65" s="11"/>
     </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B66" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="15">
+        <v>1</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J66" s="15"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+    </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="16" t="s">
-        <v>18</v>
+      <c r="B67" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D67" s="39"/>
       <c r="E67" s="39"/>
       <c r="F67" s="39"/>
       <c r="G67" s="39"/>
-      <c r="H67" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J67" s="17" t="s">
-        <v>3</v>
-      </c>
+      <c r="H67" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J67" s="15"/>
       <c r="K67" s="11"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="15" t="s">
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B71" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="15">
-        <v>5</v>
-      </c>
-      <c r="I68" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J68" s="15"/>
-      <c r="K68" s="11"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="15">
-        <v>1</v>
-      </c>
-      <c r="I69" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J69" s="15"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="15" t="s">
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B72" s="25"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B73" s="25"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B74" s="25"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I70" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J70" s="15"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="25"/>
@@ -2789,7 +2831,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="22"/>
-      <c r="K75" s="11"/>
+      <c r="K75" s="21"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
     </row>
@@ -2803,7 +2845,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="22"/>
-      <c r="K76" s="11"/>
+      <c r="K76" s="21"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
     </row>
@@ -2819,9 +2861,7 @@
       <c r="J77" s="22"/>
       <c r="K77" s="21"/>
       <c r="L77" s="11"/>
-      <c r="M77" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="M77" s="11"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="25"/>
@@ -2890,8 +2930,6 @@
       <c r="I82" s="21"/>
       <c r="J82" s="22"/>
       <c r="K82" s="21"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="25"/>
@@ -2904,8 +2942,6 @@
       <c r="I83" s="21"/>
       <c r="J83" s="22"/>
       <c r="K83" s="21"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="25"/>
@@ -2918,8 +2954,6 @@
       <c r="I84" s="21"/>
       <c r="J84" s="22"/>
       <c r="K84" s="21"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="25"/>
@@ -2934,56 +2968,62 @@
       <c r="K85" s="21"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B86" s="25"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="22"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="24"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B87" s="25"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="21"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B88" s="25"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="21"/>
-    </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B89" s="26"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="21"/>
+      <c r="B89" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B90" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B91" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B92" s="12" t="s">
-        <v>74</v>
+      <c r="B92" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -2996,8 +3036,8 @@
       <c r="K92" s="11"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B93" s="31" t="s">
-        <v>80</v>
+      <c r="B93" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -3011,7 +3051,7 @@
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="31" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -3025,7 +3065,7 @@
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -3038,8 +3078,8 @@
       <c r="K95" s="11"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B96" s="34" t="s">
-        <v>92</v>
+      <c r="B96" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -3053,7 +3093,7 @@
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B97" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -3066,9 +3106,7 @@
       <c r="K97" s="11"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="31" t="s">
-        <v>94</v>
-      </c>
+      <c r="B98" s="31"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
@@ -3077,12 +3115,9 @@
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="31" t="s">
-        <v>95</v>
-      </c>
+      <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
@@ -3091,22 +3126,11 @@
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B100" s="31"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B101" s="31"/>
+    </row>
+    <row r="101" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B101" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
@@ -3117,7 +3141,9 @@
       <c r="J101" s="11"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B102" s="11"/>
+      <c r="B102" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
@@ -3127,176 +3153,185 @@
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
     </row>
-    <row r="104" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B104" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B103" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B105" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
+      <c r="B105" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" s="17" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B106" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11"/>
+      <c r="B106" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="15">
+        <v>10</v>
+      </c>
+      <c r="I106" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J106" s="15"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B107" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="15">
+        <v>20</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J107" s="15"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B108" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C108" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I108" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J108" s="17" t="s">
-        <v>3</v>
-      </c>
+      <c r="B108" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="15">
+        <v>1</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J108" s="15"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C109" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="37"/>
+        <v>50</v>
+      </c>
+      <c r="C109" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="38"/>
       <c r="H109" s="15">
-        <v>10</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I109" s="15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J109" s="15"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C110" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="37"/>
+        <v>44</v>
+      </c>
+      <c r="C110" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="39"/>
+      <c r="G110" s="39"/>
       <c r="H110" s="15">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J110" s="15"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B111" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C111" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="15">
-        <v>1</v>
-      </c>
-      <c r="I111" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J111" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="J110" s="14"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C112" s="35" t="s">
+      <c r="B112" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I112" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J112" s="15"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="19"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B113" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C113" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D113" s="38"/>
-      <c r="E113" s="38"/>
-      <c r="F113" s="38"/>
-      <c r="G113" s="38"/>
-      <c r="H113" s="15">
-        <v>9</v>
-      </c>
-      <c r="I113" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J113" s="14"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="22"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B114" s="25"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="11"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B115" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="19"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="11"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B116" s="20"/>
+      <c r="B116" s="25"/>
       <c r="C116" s="21"/>
       <c r="D116" s="21"/>
       <c r="E116" s="21"/>
@@ -3305,6 +3340,7 @@
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
       <c r="J116" s="22"/>
+      <c r="K116" s="11"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B117" s="25"/>
@@ -3316,7 +3352,7 @@
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="22"/>
-      <c r="K117" s="11"/>
+      <c r="K117" s="21"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B118" s="25"/>
@@ -3328,7 +3364,7 @@
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="22"/>
-      <c r="K118" s="11"/>
+      <c r="K118" s="21"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B119" s="25"/>
@@ -3340,7 +3376,7 @@
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="22"/>
-      <c r="K119" s="11"/>
+      <c r="K119" s="21"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B120" s="25"/>
@@ -3427,52 +3463,52 @@
       <c r="K126" s="21"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B127" s="25"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="21"/>
-      <c r="H127" s="21"/>
-      <c r="I127" s="21"/>
-      <c r="J127" s="22"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="23"/>
+      <c r="J127" s="24"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B128" s="25"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="21"/>
-      <c r="H128" s="21"/>
-      <c r="I128" s="21"/>
-      <c r="J128" s="22"/>
-      <c r="K128" s="21"/>
-    </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B129" s="25"/>
-      <c r="C129" s="21"/>
-      <c r="D129" s="21"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="21"/>
-      <c r="H129" s="21"/>
-      <c r="I129" s="21"/>
-      <c r="J129" s="22"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="31"/>
+      <c r="J129" s="31"/>
       <c r="K129" s="21"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B130" s="26"/>
-      <c r="C130" s="23"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="23"/>
-      <c r="H130" s="23"/>
-      <c r="I130" s="23"/>
-      <c r="J130" s="24"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="31"/>
+      <c r="H130" s="31"/>
+      <c r="I130" s="31"/>
+      <c r="J130" s="31"/>
       <c r="K130" s="21"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B131" s="31"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="31"/>
+      <c r="J131" s="31"/>
+      <c r="K131" s="21"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B132" s="31"/>
@@ -3630,7 +3666,7 @@
       <c r="J144" s="31"/>
       <c r="K144" s="21"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B145" s="31"/>
       <c r="C145" s="31"/>
       <c r="D145" s="31"/>
@@ -3640,69 +3676,30 @@
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
       <c r="J145" s="31"/>
-      <c r="K145" s="21"/>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="31"/>
-      <c r="G146" s="31"/>
-      <c r="H146" s="31"/>
-      <c r="I146" s="31"/>
-      <c r="J146" s="31"/>
-      <c r="K146" s="21"/>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B147" s="31"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="31"/>
-      <c r="F147" s="31"/>
-      <c r="G147" s="31"/>
-      <c r="H147" s="31"/>
-      <c r="I147" s="31"/>
-      <c r="J147" s="31"/>
-      <c r="K147" s="21"/>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B148" s="31"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="31"/>
-      <c r="E148" s="31"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="31"/>
-      <c r="H148" s="31"/>
-      <c r="I148" s="31"/>
-      <c r="J148" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C23:F23"/>
+  <mergeCells count="21">
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C105:G105"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3713,15 +3710,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
+++ b/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
   <si>
     <t>작성일자</t>
   </si>
@@ -596,6 +596,10 @@
   </si>
   <si>
     <t>스킬2의 공격력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 내려 찍기전 범위는 0.5초간 유저를 따라오고 0.5초간 멈춘후 내려온다</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1023,6 +1027,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1030,9 +1037,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1966,8 +1970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="R89" sqref="R89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2105,13 +2109,13 @@
       <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -2123,13 +2127,13 @@
       <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -2195,12 +2199,12 @@
       <c r="B16" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="15">
         <v>50</v>
       </c>
@@ -2217,12 +2221,12 @@
       <c r="B17" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="35">
         <v>20</v>
       </c>
@@ -2239,12 +2243,12 @@
       <c r="B18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="35">
         <v>1000</v>
       </c>
@@ -2261,12 +2265,12 @@
       <c r="B19" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="35">
         <v>10</v>
       </c>
@@ -2283,12 +2287,12 @@
       <c r="B20" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="35">
         <v>5</v>
       </c>
@@ -2305,12 +2309,12 @@
       <c r="B21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
       <c r="G21" s="35"/>
       <c r="H21" s="35" t="s">
         <v>37</v>
@@ -2325,12 +2329,12 @@
       <c r="B22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35" t="s">
         <v>28</v>
@@ -2632,7 +2636,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
     <row r="60" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B60" s="28" t="s">
         <v>48</v>
@@ -2701,13 +2709,13 @@
       <c r="B65" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
       <c r="H65" s="15">
         <v>5</v>
       </c>
@@ -2721,13 +2729,13 @@
       <c r="B66" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C66" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="39"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
       <c r="H66" s="15">
         <v>1</v>
       </c>
@@ -2743,13 +2751,13 @@
       <c r="B67" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="C67" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
       <c r="H67" s="15">
         <v>1.1000000000000001</v>
       </c>
@@ -3191,13 +3199,13 @@
       <c r="B106" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C106" s="36" t="s">
+      <c r="C106" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="38"/>
+      <c r="D106" s="38"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="39"/>
       <c r="H106" s="15">
         <v>10</v>
       </c>
@@ -3210,13 +3218,13 @@
       <c r="B107" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C107" s="36" t="s">
+      <c r="C107" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="38"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="39"/>
       <c r="H107" s="15">
         <v>20</v>
       </c>
@@ -3229,13 +3237,13 @@
       <c r="B108" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C108" s="36" t="s">
+      <c r="C108" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="38"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="39"/>
       <c r="H108" s="15">
         <v>1</v>
       </c>
@@ -3248,13 +3256,13 @@
       <c r="B109" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C109" s="36" t="s">
+      <c r="C109" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="38"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="38"/>
+      <c r="F109" s="38"/>
+      <c r="G109" s="39"/>
       <c r="H109" s="15">
         <v>1.1000000000000001</v>
       </c>
@@ -3267,13 +3275,13 @@
       <c r="B110" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C110" s="39" t="s">
+      <c r="C110" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
-      <c r="F110" s="39"/>
-      <c r="G110" s="39"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36"/>
       <c r="H110" s="15">
         <v>9</v>
       </c>
@@ -3679,16 +3687,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C110:G110"/>
     <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C109:G109"/>

--- a/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
+++ b/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
     <sheet name="네임드몬스터_티버" sheetId="2" r:id="rId2"/>
-    <sheet name="호름도" sheetId="3" r:id="rId3"/>
+    <sheet name="흐름도" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
   <si>
     <t>작성일자</t>
   </si>
@@ -111,9 +111,6 @@
     <t>데이터형</t>
   </si>
   <si>
-    <t>SkillAtk 1,2</t>
-  </si>
-  <si>
     <t>스킬의 공격력</t>
   </si>
   <si>
@@ -145,12 +142,6 @@
   </si>
   <si>
     <t>실수형</t>
-  </si>
-  <si>
-    <t>MonsterDamage</t>
-  </si>
-  <si>
-    <t>몬스터의 공격력</t>
   </si>
   <si>
     <t>MonsterDefance</t>
@@ -457,10 +448,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  - </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 스킬 사용 룰</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -586,6 +573,33 @@
   </si>
   <si>
     <t xml:space="preserve"> - 히트 판정은 1초마다 적용 총 5회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  - 이동 상태는 총 2초간 지속됨.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐름도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillAtk 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillAtk 2</t>
+  </si>
+  <si>
+    <t>스킬1의 공격력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2의 공격력</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 내려 찍기전 범위는 0.5초간 유저를 따라오고 0.5초간 멈춘후 내려온다</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -904,7 +918,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1013,7 +1027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1023,6 +1037,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,13 +1065,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>419098</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1102,13 +1119,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>38098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1159,13 +1176,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>57148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1216,13 +1233,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1268,13 +1285,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409573</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1322,13 +1339,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>47623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1379,13 +1396,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>66673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1436,13 +1453,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1482,6 +1499,49 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>607895</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>125133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="723900"/>
+          <a:ext cx="8827970" cy="1496733"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1908,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M148"/>
+  <dimension ref="B2:M145"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="R89" sqref="R89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1921,7 +1981,7 @@
   <sheetData>
     <row r="2" spans="2:13" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -1953,7 +2013,7 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1969,7 +2029,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2031,13 +2091,13 @@
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -2049,13 +2109,13 @@
       <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -2067,13 +2127,13 @@
       <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -2115,12 +2175,12 @@
       <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
       <c r="G15" s="17" t="s">
         <v>25</v>
       </c>
@@ -2137,19 +2197,19 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="15">
+        <v>50</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="15">
-        <v>10</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="11"/>
@@ -2158,64 +2218,64 @@
       <c r="M16" s="29"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="15">
+      <c r="B17" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35">
         <v>20</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="15"/>
+      <c r="H17" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="35"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="15">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="15"/>
+      <c r="C18" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="35">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="14"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="35" t="s">
+      <c r="B19" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="15">
-        <v>100</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>29</v>
+      <c r="C19" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="35">
+        <v>10</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>37</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="11"/>
@@ -2224,20 +2284,20 @@
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="15">
-        <v>10</v>
-      </c>
-      <c r="H20" s="15" t="s">
+      <c r="B20" s="35" t="s">
         <v>38</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="35">
+        <v>5</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="11"/>
@@ -2246,20 +2306,18 @@
       <c r="M20" s="29"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="35" t="s">
+      <c r="B21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="15">
-        <v>5</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>29</v>
+      <c r="C21" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35" t="s">
+        <v>37</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="11"/>
@@ -2268,20 +2326,18 @@
       <c r="M21" s="29"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="35" t="s">
+      <c r="B22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="15">
-        <v>2</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>29</v>
+      <c r="C22" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35" t="s">
+        <v>28</v>
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="11"/>
@@ -2289,67 +2345,33 @@
       <c r="L22" s="29"/>
       <c r="M22" s="29"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="15">
-        <v>5</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+    <row r="24" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B24" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="15">
-        <v>7</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="14"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-    </row>
-    <row r="27" spans="2:13" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
-        <v>48</v>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="32"/>
+    </row>
+    <row r="26" spans="2:13" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B26" s="33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2363,17 +2385,39 @@
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="32"/>
-    </row>
-    <row r="29" spans="2:13" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="31" t="s">
-        <v>62</v>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="33" t="s">
+        <v>60</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -2388,8 +2432,8 @@
       <c r="M30" s="11"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="31" t="s">
-        <v>49</v>
+      <c r="B31" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2404,140 +2448,136 @@
       <c r="M31" s="11"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-    </row>
-    <row r="33" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="33" t="s">
+      <c r="B32" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B35" s="33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="2:11" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B39" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="43" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B43" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B44" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B38" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="11" t="s">
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="2:13" s="31" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B42" s="33" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51" s="11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="31" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="11" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="11"/>
-    </row>
-    <row r="46" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B46" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B49" s="11"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="21"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="21"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="12" t="s">
-        <v>73</v>
+      <c r="B53" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2550,8 +2590,8 @@
       <c r="K53" s="11"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="11" t="s">
-        <v>75</v>
+      <c r="B54" s="34" t="s">
+        <v>84</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -2565,7 +2605,7 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2579,7 +2619,7 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2591,197 +2631,203 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B59" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-    </row>
-    <row r="60" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B63" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B60" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B61" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B62" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
+      <c r="B64" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I64" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J64" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="K64" s="11"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
+      <c r="B65" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="15">
+        <v>5</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" s="15"/>
       <c r="K65" s="11"/>
     </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B66" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="15">
+        <v>1</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J66" s="15"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+    </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="16" t="s">
-        <v>18</v>
+      <c r="B67" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D67" s="36"/>
       <c r="E67" s="36"/>
       <c r="F67" s="36"/>
       <c r="G67" s="36"/>
-      <c r="H67" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I67" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J67" s="17" t="s">
-        <v>3</v>
-      </c>
+      <c r="H67" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J67" s="15"/>
       <c r="K67" s="11"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="15" t="s">
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B71" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="15">
-        <v>5</v>
-      </c>
-      <c r="I68" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J68" s="15"/>
-      <c r="K68" s="11"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="15">
-        <v>1</v>
-      </c>
-      <c r="I69" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J69" s="15"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="11"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="15" t="s">
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B72" s="25"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B73" s="25"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="21"/>
+      <c r="H73" s="21"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B74" s="25"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I70" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J70" s="15"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
-      <c r="M74" s="11"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" s="25"/>
@@ -2793,7 +2839,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="21"/>
       <c r="J75" s="22"/>
-      <c r="K75" s="11"/>
+      <c r="K75" s="21"/>
       <c r="L75" s="11"/>
       <c r="M75" s="11"/>
     </row>
@@ -2807,7 +2853,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
       <c r="J76" s="22"/>
-      <c r="K76" s="11"/>
+      <c r="K76" s="21"/>
       <c r="L76" s="11"/>
       <c r="M76" s="11"/>
     </row>
@@ -2823,9 +2869,7 @@
       <c r="J77" s="22"/>
       <c r="K77" s="21"/>
       <c r="L77" s="11"/>
-      <c r="M77" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="M77" s="11"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" s="25"/>
@@ -2894,8 +2938,6 @@
       <c r="I82" s="21"/>
       <c r="J82" s="22"/>
       <c r="K82" s="21"/>
-      <c r="L82" s="11"/>
-      <c r="M82" s="11"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" s="25"/>
@@ -2908,8 +2950,6 @@
       <c r="I83" s="21"/>
       <c r="J83" s="22"/>
       <c r="K83" s="21"/>
-      <c r="L83" s="11"/>
-      <c r="M83" s="11"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B84" s="25"/>
@@ -2922,8 +2962,6 @@
       <c r="I84" s="21"/>
       <c r="J84" s="22"/>
       <c r="K84" s="21"/>
-      <c r="L84" s="11"/>
-      <c r="M84" s="11"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" s="25"/>
@@ -2938,56 +2976,62 @@
       <c r="K85" s="21"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B86" s="25"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="22"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="24"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B87" s="25"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="21"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B88" s="25"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="21"/>
-    </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B89" s="26"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="21"/>
+      <c r="B89" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B90" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B91" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B92" s="12" t="s">
-        <v>74</v>
+      <c r="B92" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -3000,8 +3044,8 @@
       <c r="K92" s="11"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B93" s="31" t="s">
-        <v>80</v>
+      <c r="B93" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -3015,7 +3059,7 @@
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B94" s="31" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -3029,7 +3073,7 @@
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -3042,8 +3086,8 @@
       <c r="K95" s="11"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B96" s="34" t="s">
-        <v>92</v>
+      <c r="B96" s="31" t="s">
+        <v>91</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -3057,7 +3101,7 @@
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B97" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -3070,9 +3114,7 @@
       <c r="K97" s="11"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="31" t="s">
-        <v>94</v>
-      </c>
+      <c r="B98" s="31"/>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
@@ -3081,12 +3123,9 @@
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="31" t="s">
-        <v>95</v>
-      </c>
+      <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
@@ -3095,24 +3134,11 @@
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B100" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B101" s="31"/>
+    </row>
+    <row r="101" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B101" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
       <c r="E101" s="11"/>
@@ -3123,7 +3149,9 @@
       <c r="J101" s="11"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B102" s="11"/>
+      <c r="B102" s="11" t="s">
+        <v>80</v>
+      </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
@@ -3133,176 +3161,185 @@
       <c r="I102" s="11"/>
       <c r="J102" s="11"/>
     </row>
-    <row r="104" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B104" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="11"/>
-      <c r="J104" s="11"/>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B103" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B105" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
-      <c r="J105" s="11"/>
+      <c r="B105" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J105" s="17" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B106" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11"/>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
-      <c r="J106" s="11"/>
+      <c r="B106" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="38"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="38"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="15">
+        <v>10</v>
+      </c>
+      <c r="I106" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J106" s="15"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B107" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="38"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="15">
+        <v>20</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J107" s="15"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B108" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C108" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D108" s="36"/>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36"/>
-      <c r="H108" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I108" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J108" s="17" t="s">
-        <v>3</v>
-      </c>
+      <c r="B108" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="15">
+        <v>1</v>
+      </c>
+      <c r="I108" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J108" s="15"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D109" s="38"/>
       <c r="E109" s="38"/>
       <c r="F109" s="38"/>
       <c r="G109" s="39"/>
       <c r="H109" s="15">
-        <v>10</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I109" s="15" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J109" s="15"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C110" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D110" s="38"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="39"/>
+        <v>44</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="36"/>
       <c r="H110" s="15">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I110" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J110" s="15"/>
-    </row>
-    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B111" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C111" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="39"/>
-      <c r="H111" s="15">
-        <v>1</v>
-      </c>
-      <c r="I111" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J111" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="J110" s="14"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C112" s="37" t="s">
+      <c r="B112" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D112" s="38"/>
-      <c r="E112" s="38"/>
-      <c r="F112" s="38"/>
-      <c r="G112" s="39"/>
-      <c r="H112" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I112" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J112" s="15"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="19"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B113" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C113" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="15">
-        <v>9</v>
-      </c>
-      <c r="I113" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J113" s="14"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="22"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B114" s="25"/>
+      <c r="C114" s="21"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="21"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="21"/>
+      <c r="H114" s="21"/>
+      <c r="I114" s="21"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="11"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B115" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="19"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="21"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="21"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="21"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="11"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B116" s="20"/>
+      <c r="B116" s="25"/>
       <c r="C116" s="21"/>
       <c r="D116" s="21"/>
       <c r="E116" s="21"/>
@@ -3311,6 +3348,7 @@
       <c r="H116" s="21"/>
       <c r="I116" s="21"/>
       <c r="J116" s="22"/>
+      <c r="K116" s="11"/>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B117" s="25"/>
@@ -3322,7 +3360,7 @@
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="22"/>
-      <c r="K117" s="11"/>
+      <c r="K117" s="21"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B118" s="25"/>
@@ -3334,7 +3372,7 @@
       <c r="H118" s="21"/>
       <c r="I118" s="21"/>
       <c r="J118" s="22"/>
-      <c r="K118" s="11"/>
+      <c r="K118" s="21"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B119" s="25"/>
@@ -3346,7 +3384,7 @@
       <c r="H119" s="21"/>
       <c r="I119" s="21"/>
       <c r="J119" s="22"/>
-      <c r="K119" s="11"/>
+      <c r="K119" s="21"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B120" s="25"/>
@@ -3433,52 +3471,52 @@
       <c r="K126" s="21"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B127" s="25"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="21"/>
-      <c r="H127" s="21"/>
-      <c r="I127" s="21"/>
-      <c r="J127" s="22"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="23"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="23"/>
+      <c r="J127" s="24"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B128" s="25"/>
-      <c r="C128" s="21"/>
-      <c r="D128" s="21"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="21"/>
-      <c r="H128" s="21"/>
-      <c r="I128" s="21"/>
-      <c r="J128" s="22"/>
-      <c r="K128" s="21"/>
-    </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B129" s="25"/>
-      <c r="C129" s="21"/>
-      <c r="D129" s="21"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="21"/>
-      <c r="H129" s="21"/>
-      <c r="I129" s="21"/>
-      <c r="J129" s="22"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
+      <c r="E129" s="31"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="31"/>
+      <c r="J129" s="31"/>
       <c r="K129" s="21"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B130" s="26"/>
-      <c r="C130" s="23"/>
-      <c r="D130" s="23"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="23"/>
-      <c r="H130" s="23"/>
-      <c r="I130" s="23"/>
-      <c r="J130" s="24"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="E130" s="31"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="31"/>
+      <c r="H130" s="31"/>
+      <c r="I130" s="31"/>
+      <c r="J130" s="31"/>
       <c r="K130" s="21"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B131" s="31"/>
+      <c r="C131" s="31"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="31"/>
+      <c r="J131" s="31"/>
+      <c r="K131" s="21"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B132" s="31"/>
@@ -3636,7 +3674,7 @@
       <c r="J144" s="31"/>
       <c r="K144" s="21"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B145" s="31"/>
       <c r="C145" s="31"/>
       <c r="D145" s="31"/>
@@ -3646,69 +3684,30 @@
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
       <c r="J145" s="31"/>
-      <c r="K145" s="21"/>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="31"/>
-      <c r="G146" s="31"/>
-      <c r="H146" s="31"/>
-      <c r="I146" s="31"/>
-      <c r="J146" s="31"/>
-      <c r="K146" s="21"/>
-    </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B147" s="31"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="31"/>
-      <c r="F147" s="31"/>
-      <c r="G147" s="31"/>
-      <c r="H147" s="31"/>
-      <c r="I147" s="31"/>
-      <c r="J147" s="31"/>
-      <c r="K147" s="21"/>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B148" s="31"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="31"/>
-      <c r="E148" s="31"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="31"/>
-      <c r="H148" s="31"/>
-      <c r="I148" s="31"/>
-      <c r="J148" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C23:F23"/>
+  <mergeCells count="21">
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C20:F20"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C105:G105"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3719,15 +3718,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
+++ b/Document/시스템 기획서/몬스터/DreamCatcher_네임드 몬스터_티버.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
   <si>
     <t>작성일자</t>
   </si>
@@ -600,6 +600,10 @@
   </si>
   <si>
     <t xml:space="preserve"> - 내려 찍기전 범위는 0.5초간 유저를 따라오고 0.5초간 멈춘후 내려온다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 회전을 멈추는 모션이 시작될때 정지함.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1027,6 +1031,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1037,9 +1044,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1285,13 +1289,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>409573</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1339,13 +1343,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>47623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1396,13 +1400,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>66673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1453,13 +1457,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1968,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M145"/>
+  <dimension ref="B2:M146"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="R89" sqref="R89"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2091,13 +2095,13 @@
       <c r="B10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -2109,13 +2113,13 @@
       <c r="B11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
@@ -2127,13 +2131,13 @@
       <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -2175,12 +2179,12 @@
       <c r="B15" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="17" t="s">
         <v>25</v>
       </c>
@@ -2199,12 +2203,12 @@
       <c r="B16" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="15">
         <v>50</v>
       </c>
@@ -2221,12 +2225,12 @@
       <c r="B17" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="35">
         <v>20</v>
       </c>
@@ -2243,12 +2247,12 @@
       <c r="B18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="35">
         <v>1000</v>
       </c>
@@ -2265,12 +2269,12 @@
       <c r="B19" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="35">
         <v>10</v>
       </c>
@@ -2287,12 +2291,12 @@
       <c r="B20" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="35">
         <v>5</v>
       </c>
@@ -2309,12 +2313,12 @@
       <c r="B21" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="35"/>
       <c r="H21" s="35" t="s">
         <v>37</v>
@@ -2329,12 +2333,12 @@
       <c r="B22" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
       <c r="G22" s="35"/>
       <c r="H22" s="35" t="s">
         <v>28</v>
@@ -2687,13 +2691,13 @@
       <c r="B64" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
       <c r="H64" s="17" t="s">
         <v>25</v>
       </c>
@@ -2709,13 +2713,13 @@
       <c r="B65" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="G65" s="36"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
       <c r="H65" s="15">
         <v>5</v>
       </c>
@@ -2729,13 +2733,13 @@
       <c r="B66" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
       <c r="H66" s="15">
         <v>1</v>
       </c>
@@ -2751,13 +2755,13 @@
       <c r="B67" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
       <c r="H67" s="15">
         <v>1.1000000000000001</v>
       </c>
@@ -3029,23 +3033,14 @@
       <c r="J91" s="11"/>
       <c r="K91" s="11"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B92" s="31" t="s">
+    <row r="92" spans="2:13" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B93" s="31" t="s">
         <v>78</v>
-      </c>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="11"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B93" s="34" t="s">
-        <v>88</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -3058,8 +3053,8 @@
       <c r="K93" s="11"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B94" s="31" t="s">
-        <v>89</v>
+      <c r="B94" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -3073,7 +3068,7 @@
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -3087,7 +3082,7 @@
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B96" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -3101,7 +3096,7 @@
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B97" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -3114,7 +3109,9 @@
       <c r="K97" s="11"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B98" s="31"/>
+      <c r="B98" s="31" t="s">
+        <v>92</v>
+      </c>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
@@ -3123,9 +3120,10 @@
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B99" s="11"/>
+      <c r="B99" s="31"/>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
@@ -3135,22 +3133,20 @@
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
     </row>
-    <row r="101" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B101" s="28" t="s">
+    <row r="100" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+    </row>
+    <row r="102" spans="2:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B102" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
-      <c r="J101" s="11"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B102" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -3163,7 +3159,7 @@
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B103" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -3174,59 +3170,53 @@
       <c r="I103" s="11"/>
       <c r="J103" s="11"/>
     </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B105" s="16" t="s">
+    <row r="104" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B104" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B106" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C105" s="40" t="s">
+      <c r="C106" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="40"/>
-      <c r="E105" s="40"/>
-      <c r="F105" s="40"/>
-      <c r="G105" s="40"/>
-      <c r="H105" s="17" t="s">
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="I105" s="17" t="s">
+      <c r="I106" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="J105" s="17" t="s">
+      <c r="J106" s="17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B106" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C106" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D106" s="38"/>
-      <c r="E106" s="38"/>
-      <c r="F106" s="38"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="15">
-        <v>10</v>
-      </c>
-      <c r="I106" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J106" s="15"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B107" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C107" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="39"/>
+        <v>49</v>
+      </c>
+      <c r="C107" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="40"/>
       <c r="H107" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I107" s="15" t="s">
         <v>28</v>
@@ -3235,17 +3225,17 @@
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B108" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C108" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D108" s="38"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="39"/>
+        <v>29</v>
+      </c>
+      <c r="C108" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="40"/>
       <c r="H108" s="15">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I108" s="15" t="s">
         <v>28</v>
@@ -3254,68 +3244,76 @@
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B109" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C109" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="39"/>
+        <v>31</v>
+      </c>
+      <c r="C109" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="40"/>
       <c r="H109" s="15">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="I109" s="15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="J109" s="15"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B110" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="39"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I110" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J110" s="15"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B111" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C110" s="36" t="s">
+      <c r="C111" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="D110" s="36"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="15">
+      <c r="D111" s="37"/>
+      <c r="E111" s="37"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="15">
         <v>9</v>
       </c>
-      <c r="I110" s="15" t="s">
+      <c r="I111" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J110" s="14"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="27" t="s">
+      <c r="J111" s="14"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B113" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="19"/>
-    </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B113" s="20"/>
-      <c r="C113" s="21"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="21"/>
-      <c r="H113" s="21"/>
-      <c r="I113" s="21"/>
-      <c r="J113" s="22"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="19"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B114" s="25"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="21"/>
       <c r="D114" s="21"/>
       <c r="E114" s="21"/>
@@ -3324,7 +3322,6 @@
       <c r="H114" s="21"/>
       <c r="I114" s="21"/>
       <c r="J114" s="22"/>
-      <c r="K114" s="11"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B115" s="25"/>
@@ -3360,7 +3357,7 @@
       <c r="H117" s="21"/>
       <c r="I117" s="21"/>
       <c r="J117" s="22"/>
-      <c r="K117" s="21"/>
+      <c r="K117" s="11"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B118" s="25"/>
@@ -3471,28 +3468,28 @@
       <c r="K126" s="21"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B127" s="26"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="23"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="23"/>
-      <c r="H127" s="23"/>
-      <c r="I127" s="23"/>
-      <c r="J127" s="24"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="21"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="21"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="21"/>
+      <c r="H127" s="21"/>
+      <c r="I127" s="21"/>
+      <c r="J127" s="22"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B129" s="31"/>
-      <c r="C129" s="31"/>
-      <c r="D129" s="31"/>
-      <c r="E129" s="31"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="31"/>
-      <c r="H129" s="31"/>
-      <c r="I129" s="31"/>
-      <c r="J129" s="31"/>
-      <c r="K129" s="21"/>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B128" s="26"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="23"/>
+      <c r="I128" s="23"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="21"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B130" s="31"/>
@@ -3674,7 +3671,7 @@
       <c r="J144" s="31"/>
       <c r="K144" s="21"/>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B145" s="31"/>
       <c r="C145" s="31"/>
       <c r="D145" s="31"/>
@@ -3684,30 +3681,42 @@
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
       <c r="J145" s="31"/>
+      <c r="K145" s="21"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B146" s="31"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="31"/>
+      <c r="I146" s="31"/>
+      <c r="J146" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C106:G106"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C105:G105"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
